--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/其他服务业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/其他服务业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7038734.46</v>
+        <v>35032463.8883549</v>
       </c>
       <c r="C2" t="n">
-        <v>75268910.371015</v>
+        <v>410666762.024624</v>
       </c>
       <c r="D2" t="n">
-        <v>54220863.4993036</v>
+        <v>388500380.397133</v>
       </c>
       <c r="E2" t="n">
-        <v>9413798.392756609</v>
+        <v>55793236.0500873</v>
       </c>
       <c r="F2" t="n">
-        <v>68950047.2220021</v>
+        <v>502196316.417956</v>
       </c>
       <c r="G2" t="n">
-        <v>144218957.593017</v>
+        <v>912863078.4425811</v>
       </c>
       <c r="H2" t="n">
-        <v>3997008.73</v>
+        <v>35571888.9179033</v>
       </c>
       <c r="I2" t="n">
-        <v>2031552.72175326</v>
+        <v>15330012.7205751</v>
       </c>
       <c r="J2" t="n">
-        <v>3283832.60818865</v>
+        <v>42572687.2501607</v>
       </c>
       <c r="K2" t="n">
-        <v>1712843</v>
+        <v>5325660.92145736</v>
       </c>
       <c r="L2" t="n">
-        <v>10190589</v>
+        <v>93575178.6791475</v>
       </c>
       <c r="M2" t="n">
-        <v>4134665.2</v>
+        <v>10038180.7169564</v>
       </c>
       <c r="N2" t="n">
-        <v>7668631</v>
+        <v>18820677.8518995</v>
       </c>
       <c r="O2" t="n">
-        <v>6980000.1</v>
+        <v>43706207.6082068</v>
       </c>
       <c r="P2" t="n">
-        <v>9033471.1</v>
+        <v>51241977.0420958</v>
       </c>
       <c r="Q2" t="n">
-        <v>1617664.18</v>
+        <v>11616742.2004486</v>
       </c>
       <c r="R2" t="n">
-        <v>2932269.6</v>
+        <v>13530157.0776608</v>
       </c>
       <c r="S2" t="n">
-        <v>1446163.64</v>
+        <v>13201049.1143274</v>
       </c>
       <c r="T2" t="n">
-        <v>12442872.3</v>
+        <v>38683560.6483142</v>
       </c>
       <c r="U2" t="n">
-        <v>795725.781015</v>
+        <v>3298775.51272201</v>
       </c>
       <c r="V2" t="n">
-        <v>1245461.38</v>
+        <v>6420602.13846579</v>
       </c>
       <c r="W2" t="n">
-        <v>2243318.1</v>
+        <v>16162812.3727401</v>
       </c>
       <c r="X2" t="n">
-        <v>1026293.8</v>
+        <v>4303124.49375854</v>
       </c>
       <c r="Y2" t="n">
-        <v>763199</v>
+        <v>10137702.8401651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17194380.4193209</v>
+        <v>31057450.3433459</v>
       </c>
       <c r="C3" t="n">
-        <v>147153748.587307</v>
+        <v>615942511.839767</v>
       </c>
       <c r="D3" t="n">
-        <v>113467464.154722</v>
+        <v>527569787.032787</v>
       </c>
       <c r="E3" t="n">
-        <v>21524856.8366644</v>
+        <v>71187299.8783818</v>
       </c>
       <c r="F3" t="n">
-        <v>160353315.133719</v>
+        <v>686662159.251184</v>
       </c>
       <c r="G3" t="n">
-        <v>307507063.721027</v>
+        <v>1302604671.09095</v>
       </c>
       <c r="H3" t="n">
-        <v>11825462.3704279</v>
+        <v>77422376.57189541</v>
       </c>
       <c r="I3" t="n">
-        <v>7759241.74853036</v>
+        <v>18062869.0361441</v>
       </c>
       <c r="J3" t="n">
-        <v>17601752.3938021</v>
+        <v>69842203.3038708</v>
       </c>
       <c r="K3" t="n">
-        <v>1215546.0236798</v>
+        <v>9070897.79830274</v>
       </c>
       <c r="L3" t="n">
-        <v>18134775.2401296</v>
+        <v>112044875.79681</v>
       </c>
       <c r="M3" t="n">
-        <v>7555930.6644135</v>
+        <v>10182164.0618135</v>
       </c>
       <c r="N3" t="n">
-        <v>17503093.8758113</v>
+        <v>34588244.7888771</v>
       </c>
       <c r="O3" t="n">
-        <v>17946337.423579</v>
+        <v>65106567.3740609</v>
       </c>
       <c r="P3" t="n">
-        <v>14587378.0660307</v>
+        <v>75626067.1485313</v>
       </c>
       <c r="Q3" t="n">
-        <v>2863677.68621685</v>
+        <v>19320924.0954991</v>
       </c>
       <c r="R3" t="n">
-        <v>5909390.77401409</v>
+        <v>12878852.73776</v>
       </c>
       <c r="S3" t="n">
-        <v>8835238.13680416</v>
+        <v>21667667.4676181</v>
       </c>
       <c r="T3" t="n">
-        <v>10099725.7246712</v>
+        <v>63850451.7637421</v>
       </c>
       <c r="U3" t="n">
-        <v>2049319.95246488</v>
+        <v>1590756.50321566</v>
       </c>
       <c r="V3" t="n">
-        <v>2057448.67996052</v>
+        <v>14085607.4749152</v>
       </c>
       <c r="W3" t="n">
-        <v>5165042.04198118</v>
+        <v>38669323.2419758</v>
       </c>
       <c r="X3" t="n">
-        <v>1318823.79472926</v>
+        <v>4143184.00851202</v>
       </c>
       <c r="Y3" t="n">
-        <v>2892177.71307232</v>
+        <v>24637100.6628918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23401586.0797388</v>
+        <v>36590520.2227694</v>
       </c>
       <c r="C4" t="n">
-        <v>257082969.635003</v>
+        <v>831613785.185081</v>
       </c>
       <c r="D4" t="n">
-        <v>151172302.044759</v>
+        <v>784490586.781582</v>
       </c>
       <c r="E4" t="n">
-        <v>24402984.8774185</v>
+        <v>91199949.48280831</v>
       </c>
       <c r="F4" t="n">
-        <v>227475254.818654</v>
+        <v>966861192.885999</v>
       </c>
       <c r="G4" t="n">
-        <v>484558224.453657</v>
+        <v>1798474978.07108</v>
       </c>
       <c r="H4" t="n">
-        <v>24125486.6171897</v>
+        <v>111911016.053552</v>
       </c>
       <c r="I4" t="n">
-        <v>9012611.60487208</v>
+        <v>17565436.5709346</v>
       </c>
       <c r="J4" t="n">
-        <v>42887356.2916045</v>
+        <v>73605220.05067401</v>
       </c>
       <c r="K4" t="n">
-        <v>2548065.71841115</v>
+        <v>12761282.0587404</v>
       </c>
       <c r="L4" t="n">
-        <v>44868819.4711013</v>
+        <v>169020429.485487</v>
       </c>
       <c r="M4" t="n">
-        <v>15873983.7531295</v>
+        <v>10805108.1560872</v>
       </c>
       <c r="N4" t="n">
-        <v>13523725.0313685</v>
+        <v>52055999.1924719</v>
       </c>
       <c r="O4" t="n">
-        <v>29744649.9395027</v>
+        <v>85545209.20328569</v>
       </c>
       <c r="P4" t="n">
-        <v>24855606.7121303</v>
+        <v>98526682.7342059</v>
       </c>
       <c r="Q4" t="n">
-        <v>6173439.12220621</v>
+        <v>15756158.0118384</v>
       </c>
       <c r="R4" t="n">
-        <v>11006663.2196081</v>
+        <v>11536597.0249982</v>
       </c>
       <c r="S4" t="n">
-        <v>14073556.0036331</v>
+        <v>28640602.5681153</v>
       </c>
       <c r="T4" t="n">
-        <v>24558488.5023851</v>
+        <v>90053241.5941481</v>
       </c>
       <c r="U4" t="n">
-        <v>4674943.13491429</v>
+        <v>1154772.53605155</v>
       </c>
       <c r="V4" t="n">
-        <v>3831119.54235114</v>
+        <v>16042787.1492455</v>
       </c>
       <c r="W4" t="n">
-        <v>6617364.94323548</v>
+        <v>47334634.2599474</v>
       </c>
       <c r="X4" t="n">
-        <v>2531024.4461914</v>
+        <v>4351928.48661756</v>
       </c>
       <c r="Y4" t="n">
-        <v>4674447.39790658</v>
+        <v>39526816.4475196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31930162.5900038</v>
+        <v>10996321.9599146</v>
       </c>
       <c r="C5" t="n">
-        <v>308071739.26942</v>
+        <v>1544685364.75695</v>
       </c>
       <c r="D5" t="n">
-        <v>198016050.149181</v>
+        <v>1048860266.69725</v>
       </c>
       <c r="E5" t="n">
-        <v>31101661.6954802</v>
+        <v>223990361.204701</v>
       </c>
       <c r="F5" t="n">
-        <v>294284442.52545</v>
+        <v>1391738430.2171</v>
       </c>
       <c r="G5" t="n">
-        <v>602356181.79487</v>
+        <v>2936423794.97406</v>
       </c>
       <c r="H5" t="n">
-        <v>31968596.5394225</v>
+        <v>308923577.366421</v>
       </c>
       <c r="I5" t="n">
-        <v>10686190.3816249</v>
+        <v>38007870.6239175</v>
       </c>
       <c r="J5" t="n">
-        <v>54480540.2991643</v>
+        <v>80879931.69123331</v>
       </c>
       <c r="K5" t="n">
-        <v>3648331.05382352</v>
-      </c>
-      <c r="L5" t="n">
-        <v>56231930.3834848</v>
-      </c>
+        <v>53209261.7292027</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>7524834.09305411</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15020492.0790044</v>
-      </c>
-      <c r="O5" t="n">
-        <v>33683756.778783</v>
-      </c>
+        <v>12711271.1526674</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>42513904.0737823</v>
+        <v>124492378.800578</v>
       </c>
       <c r="Q5" t="n">
-        <v>9826221.26804091</v>
+        <v>208306014.613176</v>
       </c>
       <c r="R5" t="n">
-        <v>11604600.2881347</v>
+        <v>31789149.6841983</v>
       </c>
       <c r="S5" t="n">
-        <v>9497053.32249278</v>
-      </c>
-      <c r="T5" t="n">
-        <v>23881385.3903096</v>
-      </c>
+        <v>47440887.8202424</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2094235.28587755</v>
+        <v>1916830.18411369</v>
       </c>
       <c r="V5" t="n">
-        <v>3811142.4011016</v>
-      </c>
-      <c r="W5" t="n">
-        <v>12958315.2594728</v>
-      </c>
+        <v>24478498.7005564</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>3403551.20621446</v>
+        <v>2782083.31091831</v>
       </c>
       <c r="Y5" t="n">
-        <v>8473227.25641688</v>
+        <v>165057670.545955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35032463.8883549</v>
+        <v>13796559.9459618</v>
       </c>
       <c r="C6" t="n">
-        <v>410666762.024624</v>
+        <v>1999285330.22113</v>
       </c>
       <c r="D6" t="n">
-        <v>388500380.397133</v>
+        <v>1377721024.14255</v>
       </c>
       <c r="E6" t="n">
-        <v>55793236.0500873</v>
+        <v>321264926.257711</v>
       </c>
       <c r="F6" t="n">
-        <v>502196316.417956</v>
+        <v>1791713973.21141</v>
       </c>
       <c r="G6" t="n">
-        <v>912863078.4425811</v>
+        <v>3790999303.43253</v>
       </c>
       <c r="H6" t="n">
-        <v>35571888.9179033</v>
+        <v>404434738.267238</v>
       </c>
       <c r="I6" t="n">
-        <v>15330012.7205751</v>
+        <v>38425380.7696657</v>
       </c>
       <c r="J6" t="n">
-        <v>42572687.2501607</v>
+        <v>54302642.0414779</v>
       </c>
       <c r="K6" t="n">
-        <v>5325660.92145736</v>
-      </c>
-      <c r="L6" t="n">
-        <v>93575178.6791475</v>
-      </c>
+        <v>74704003.6063263</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>10038180.7169564</v>
-      </c>
-      <c r="N6" t="n">
-        <v>18820677.8518995</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43706207.6082068</v>
-      </c>
+        <v>18137541.1865665</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>51241977.0420958</v>
+        <v>141958202.338304</v>
       </c>
       <c r="Q6" t="n">
-        <v>11616742.2004486</v>
+        <v>244671587.790661</v>
       </c>
       <c r="R6" t="n">
-        <v>13530157.0776608</v>
+        <v>39024099.5468805</v>
       </c>
       <c r="S6" t="n">
-        <v>13201049.1143274</v>
-      </c>
-      <c r="T6" t="n">
-        <v>38683560.6483142</v>
-      </c>
+        <v>63826623.3609232</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3298775.51272201</v>
+        <v>2126124.79117868</v>
       </c>
       <c r="V6" t="n">
-        <v>6420602.13846579</v>
-      </c>
-      <c r="W6" t="n">
-        <v>16162812.3727401</v>
-      </c>
+        <v>32268305.4284364</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>4303124.49375854</v>
+        <v>3007883.61751681</v>
       </c>
       <c r="Y6" t="n">
-        <v>10137702.8401651</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>31057450.3433459</v>
-      </c>
-      <c r="C7" t="n">
-        <v>615942511.839767</v>
-      </c>
-      <c r="D7" t="n">
-        <v>527569787.032787</v>
-      </c>
-      <c r="E7" t="n">
-        <v>71187299.8783818</v>
-      </c>
-      <c r="F7" t="n">
-        <v>686662159.251184</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1302604671.09095</v>
-      </c>
-      <c r="H7" t="n">
-        <v>77422376.57189541</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18062869.0361441</v>
-      </c>
-      <c r="J7" t="n">
-        <v>69842203.3038708</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9070897.79830274</v>
-      </c>
-      <c r="L7" t="n">
-        <v>112044875.79681</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10182164.0618135</v>
-      </c>
-      <c r="N7" t="n">
-        <v>34588244.7888771</v>
-      </c>
-      <c r="O7" t="n">
-        <v>65106567.3740609</v>
-      </c>
-      <c r="P7" t="n">
-        <v>75626067.1485313</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>19320924.0954991</v>
-      </c>
-      <c r="R7" t="n">
-        <v>12878852.73776</v>
-      </c>
-      <c r="S7" t="n">
-        <v>21667667.4676181</v>
-      </c>
-      <c r="T7" t="n">
-        <v>63850451.7637421</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1590756.50321566</v>
-      </c>
-      <c r="V7" t="n">
-        <v>14085607.4749152</v>
-      </c>
-      <c r="W7" t="n">
-        <v>38669323.2419758</v>
-      </c>
-      <c r="X7" t="n">
-        <v>4143184.00851202</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>24637100.6628918</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>36590520.2227694</v>
-      </c>
-      <c r="C8" t="n">
-        <v>831613785.185081</v>
-      </c>
-      <c r="D8" t="n">
-        <v>784490586.781582</v>
-      </c>
-      <c r="E8" t="n">
-        <v>91199949.48280831</v>
-      </c>
-      <c r="F8" t="n">
-        <v>966861192.885999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1798474978.07108</v>
-      </c>
-      <c r="H8" t="n">
-        <v>111911016.053552</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17565436.5709346</v>
-      </c>
-      <c r="J8" t="n">
-        <v>73605220.05067401</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12761282.0587404</v>
-      </c>
-      <c r="L8" t="n">
-        <v>169020429.485487</v>
-      </c>
-      <c r="M8" t="n">
-        <v>10805108.1560872</v>
-      </c>
-      <c r="N8" t="n">
-        <v>52055999.1924719</v>
-      </c>
-      <c r="O8" t="n">
-        <v>85545209.20328569</v>
-      </c>
-      <c r="P8" t="n">
-        <v>98526682.7342059</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15756158.0118384</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11536597.0249982</v>
-      </c>
-      <c r="S8" t="n">
-        <v>28640602.5681153</v>
-      </c>
-      <c r="T8" t="n">
-        <v>90053241.5941481</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1154772.53605155</v>
-      </c>
-      <c r="V8" t="n">
-        <v>16042787.1492455</v>
-      </c>
-      <c r="W8" t="n">
-        <v>47334634.2599474</v>
-      </c>
-      <c r="X8" t="n">
-        <v>4351928.48661756</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>39526816.4475196</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10996321.9599146</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1544685364.75695</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1048860266.69725</v>
-      </c>
-      <c r="E9" t="n">
-        <v>223990361.204701</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1391738430.2171</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2936423794.97406</v>
-      </c>
-      <c r="H9" t="n">
-        <v>308923577.366421</v>
-      </c>
-      <c r="I9" t="n">
-        <v>38007870.6239175</v>
-      </c>
-      <c r="J9" t="n">
-        <v>80879931.69123331</v>
-      </c>
-      <c r="K9" t="n">
-        <v>53209261.7292027</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>12711271.1526674</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>124492378.800578</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>208306014.613176</v>
-      </c>
-      <c r="R9" t="n">
-        <v>31789149.6841983</v>
-      </c>
-      <c r="S9" t="n">
-        <v>47440887.8202424</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>1916830.18411369</v>
-      </c>
-      <c r="V9" t="n">
-        <v>24478498.7005564</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>2782083.31091831</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>165057670.545955</v>
+        <v>188654341.051942</v>
       </c>
     </row>
   </sheetData>
